--- a/Input_data/Proteomic data/abundance/200_bio.xlsx
+++ b/Input_data/Proteomic data/abundance/200_bio.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\Proteomic data\abundance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouls\PycharmProjects\PC_ML_using_NSP\Input_data\Proteomic data\abundance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB8BBAE4-12B3-4A97-9968-E7F3F0923689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278E7C39-A784-45F7-A21D-4129CB12B36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="3225" windowWidth="22335" windowHeight="11055" xr2:uid="{927E91F4-5CAB-2847-B502-F348EACF61D0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{927E91F4-5CAB-2847-B502-F348EACF61D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass Spec Details" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -608,7 +609,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -635,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1066.7724501860801</v>
+        <v>6.1699271987849036</v>
       </c>
       <c r="C2">
-        <v>1429.0468214180701</v>
+        <v>8.3222798036979295</v>
       </c>
       <c r="D2">
-        <v>1385.3965053289501</v>
+        <v>8.1264082454217963</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,13 +650,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1525.9871155140299</v>
+        <v>8.8259022881243414</v>
       </c>
       <c r="C3">
-        <v>1563.6581708578999</v>
+        <v>9.1062102516030254</v>
       </c>
       <c r="D3">
-        <v>738.34407099021803</v>
+        <v>4.3309516974914963</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,13 +664,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1329.03564004847</v>
+        <v>7.6867875077381314</v>
       </c>
       <c r="C4">
-        <v>1491.24158313213</v>
+        <v>8.684480818773908</v>
       </c>
       <c r="D4">
-        <v>682.86473093507595</v>
+        <v>4.0055230099349215</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -677,13 +678,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1276.1812852897001</v>
+        <v>7.381092023247998</v>
       </c>
       <c r="C5">
-        <v>1260.7984162017201</v>
+        <v>7.3424586503595384</v>
       </c>
       <c r="D5">
-        <v>750.86842591587595</v>
+        <v>4.4044166013980419</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -691,13 +692,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1164.7524525872</v>
+        <v>6.7366173880996261</v>
       </c>
       <c r="C6">
-        <v>528.87695627897301</v>
+        <v>3.0799984618517091</v>
       </c>
       <c r="D6">
-        <v>1133.39567822666</v>
+        <v>6.6482309933932031</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,13 +706,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>928.75119499363905</v>
+        <v>5.3716490877653227</v>
       </c>
       <c r="C7">
-        <v>824.06502694443805</v>
+        <v>4.7990728000556802</v>
       </c>
       <c r="D7">
-        <v>934.93984133782203</v>
+        <v>5.4841359902355284</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -719,13 +720,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>723.71513991677705</v>
+        <v>4.1857752561626951</v>
       </c>
       <c r="C8">
-        <v>784.06311019401903</v>
+        <v>4.5661153217619539</v>
       </c>
       <c r="D8">
-        <v>893.49775942747704</v>
+        <v>5.2410465390580052</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,13 +734,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>800.06026839285403</v>
+        <v>4.6273351076540878</v>
       </c>
       <c r="C9">
-        <v>709.53896618720501</v>
+        <v>4.1321122021578409</v>
       </c>
       <c r="D9">
-        <v>734.02871915415005</v>
+        <v>4.3056388642285084</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,13 +748,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>715.88483862250496</v>
+        <v>4.1404868828814179</v>
       </c>
       <c r="C10">
-        <v>520.15154810185902</v>
+        <v>3.0291846696350491</v>
       </c>
       <c r="D10">
-        <v>917.80249345429797</v>
+        <v>5.383612360639491</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -761,13 +762,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>655.45452596924804</v>
+        <v>3.7909740794664359</v>
       </c>
       <c r="C11">
-        <v>597.62628169296397</v>
+        <v>3.4803710135662551</v>
       </c>
       <c r="D11">
-        <v>699.48127034545405</v>
+        <v>4.1029917002019083</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,13 +776,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>603.94764453419998</v>
+        <v>3.4930720211265731</v>
       </c>
       <c r="C12">
-        <v>638.80849902205603</v>
+        <v>3.7202021586432967</v>
       </c>
       <c r="D12">
-        <v>694.57069975578997</v>
+        <v>4.0741874545032388</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,13 +790,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>429.16481919463001</v>
+        <v>2.4821747976793649</v>
       </c>
       <c r="C13">
-        <v>863.603315843671</v>
+        <v>5.0293302683535623</v>
       </c>
       <c r="D13">
-        <v>502.53824144075298</v>
+        <v>2.9477704708907395</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,13 +804,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>507.289537934767</v>
+        <v>2.9340273243996706</v>
       </c>
       <c r="C14">
-        <v>520.88920898646495</v>
+        <v>3.033480554269425</v>
       </c>
       <c r="D14">
-        <v>628.10460560427896</v>
+        <v>3.6843130658526255</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,13 +818,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>394.81840493862899</v>
+        <v>2.2835243024759411</v>
       </c>
       <c r="C15">
-        <v>391.48359693843298</v>
+        <v>2.2798665400247211</v>
       </c>
       <c r="D15">
-        <v>419.75321725566198</v>
+        <v>2.4621730981909802</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,13 +832,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>383.35267867077903</v>
+        <v>2.217209601209059</v>
       </c>
       <c r="C16">
-        <v>392.55844416727098</v>
+        <v>2.2861260825747287</v>
       </c>
       <c r="D16">
-        <v>429.74794009603801</v>
+        <v>2.5207997785588887</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -845,13 +846,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>369.64970021786701</v>
+        <v>2.1379552302827776</v>
       </c>
       <c r="C17">
-        <v>365.41277180279798</v>
+        <v>2.1280389733976648</v>
       </c>
       <c r="D17">
-        <v>410.94893192247599</v>
+        <v>2.4105292426944191</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -859,13 +860,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>335.40497776385303</v>
+        <v>1.9398928933270327</v>
       </c>
       <c r="C18">
-        <v>286.504854619112</v>
+        <v>1.6685062585227184</v>
       </c>
       <c r="D18">
-        <v>430.83917447763002</v>
+        <v>2.5272007013576299</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -873,13 +874,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>290.60975525985799</v>
+        <v>1.6808092793334295</v>
       </c>
       <c r="C19">
-        <v>310.53130376157998</v>
+        <v>1.8084280787570739</v>
       </c>
       <c r="D19">
-        <v>372.80534600205698</v>
+        <v>2.1867879888791095</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -887,13 +888,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>326.55779099109998</v>
+        <v>1.8887231257796824</v>
       </c>
       <c r="C20">
-        <v>295.94682761544999</v>
+        <v>1.7234930791060425</v>
       </c>
       <c r="D20">
-        <v>336.74499397422198</v>
+        <v>1.9752664923800036</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -901,13 +902,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>272.66113593870102</v>
+        <v>1.5769992545142417</v>
       </c>
       <c r="C21">
-        <v>290.909723861364</v>
+        <v>1.694158710061253</v>
       </c>
       <c r="D21">
-        <v>364.69548254806699</v>
+        <v>2.1392174478908452</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -915,13 +916,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>262.61907862796198</v>
+        <v>1.518918674609429</v>
       </c>
       <c r="C22">
-        <v>286.73669552177</v>
+        <v>1.6698564206258377</v>
       </c>
       <c r="D22">
-        <v>304.03278711661301</v>
+        <v>1.7833844235924132</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -929,13 +930,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>244.17981670058401</v>
+        <v>1.4122709038768766</v>
       </c>
       <c r="C23">
-        <v>215.078864745987</v>
+        <v>1.2525457286988042</v>
       </c>
       <c r="D23">
-        <v>289.127493686572</v>
+        <v>1.6959534975258312</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,13 +944,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>204.509844745979</v>
+        <v>1.182830371460561</v>
       </c>
       <c r="C24">
-        <v>213.79324570280599</v>
+        <v>1.2450587232081807</v>
       </c>
       <c r="D24">
-        <v>240.28236662400701</v>
+        <v>1.4094395343513286</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,13 +958,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>189.58148821448501</v>
+        <v>1.0964887407025143</v>
       </c>
       <c r="C25">
-        <v>251.835116767448</v>
+        <v>1.466601565969615</v>
       </c>
       <c r="D25">
-        <v>213.636407088043</v>
+        <v>1.2531406376475154</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,13 +972,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>187.21714568297401</v>
+        <v>1.0828140143915106</v>
       </c>
       <c r="C26">
-        <v>214.40443810339201</v>
+        <v>1.2486180986571414</v>
       </c>
       <c r="D26">
-        <v>218.58664305544599</v>
+        <v>1.2821775510708935</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,13 +986,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>175.959863203162</v>
+        <v>1.0177048963743727</v>
       </c>
       <c r="C27">
-        <v>195.95466100615201</v>
+        <v>1.1411729086061084</v>
       </c>
       <c r="D27">
-        <v>199.76533401924999</v>
+        <v>1.1717762036205053</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -999,13 +1000,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>140.84314575013599</v>
+        <v>0.81459917302383456</v>
       </c>
       <c r="C28">
-        <v>170.674196452975</v>
+        <v>0.99394813162488171</v>
       </c>
       <c r="D28">
-        <v>177.95304280998499</v>
+        <v>1.043830462128668</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1013,13 +1014,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>150.94114168731201</v>
+        <v>0.87300328701753005</v>
       </c>
       <c r="C29">
-        <v>143.20184531136101</v>
+        <v>0.83395855700823229</v>
       </c>
       <c r="D29">
-        <v>183.90275423592701</v>
+        <v>1.0787300622097116</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,13 +1028,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>124.74533349580599</v>
+        <v>0.72149372241757026</v>
       </c>
       <c r="C30">
-        <v>120.448389945325</v>
+        <v>0.70145021703012189</v>
       </c>
       <c r="D30">
-        <v>132.08400157914801</v>
+        <v>0.77477351458038513</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,13 +1042,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>105.111184759753</v>
+        <v>0.60793504522223152</v>
       </c>
       <c r="C31">
-        <v>94.737978407492506</v>
+        <v>0.55172157589732829</v>
       </c>
       <c r="D31">
-        <v>116.732317892661</v>
+        <v>0.68472416884354603</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1055,13 +1056,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>92.882753706322603</v>
+        <v>0.5372090629925016</v>
       </c>
       <c r="C32">
-        <v>102.67092179102301</v>
+        <v>0.59792032426242514</v>
       </c>
       <c r="D32">
-        <v>108.49349831164101</v>
+        <v>0.63639720171304481</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1069,13 +1070,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>87.210889382900405</v>
+        <v>0.50440451320234148</v>
       </c>
       <c r="C33">
-        <v>87.418338379938902</v>
+        <v>0.5090944964632198</v>
       </c>
       <c r="D33">
-        <v>114.81769756859499</v>
+        <v>0.67349345884211731</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,13 +1084,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>90.315027570840599</v>
+        <v>0.52235802018615829</v>
       </c>
       <c r="C34">
-        <v>92.716802690830605</v>
+        <v>0.53995093997805965</v>
       </c>
       <c r="D34">
-        <v>98.057329498598605</v>
+        <v>0.57518110367417719</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,13 +1098,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>74.0697703389759</v>
+        <v>0.42839978717343336</v>
       </c>
       <c r="C35">
-        <v>79.1882223848812</v>
+        <v>0.46116511647286174</v>
       </c>
       <c r="D35">
-        <v>90.341810373240406</v>
+        <v>0.52992369325279531</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,13 +1112,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>71.631705318697598</v>
+        <v>0.41429866965919948</v>
       </c>
       <c r="C36">
-        <v>69.086579200887201</v>
+        <v>0.40233660239318081</v>
       </c>
       <c r="D36">
-        <v>71.9495508871357</v>
+        <v>0.42203904899037176</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,13 +1126,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>71.334260865561603</v>
+        <v>0.41257833031109259</v>
       </c>
       <c r="C37">
-        <v>52.5884174563922</v>
+        <v>0.30625695249892138</v>
       </c>
       <c r="D37">
-        <v>82.909012219589997</v>
+        <v>0.48632465718619378</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,13 +1140,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>79.100968174544207</v>
+        <v>0.45749889295060808</v>
       </c>
       <c r="C38">
-        <v>35.276728574266301</v>
+        <v>0.2054395988669023</v>
       </c>
       <c r="D38">
-        <v>75.828393098067195</v>
+        <v>0.44479142002953459</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,13 +1154,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>50.446760670035403</v>
+        <v>0.29177060271321342</v>
       </c>
       <c r="C39">
-        <v>68.968554538432898</v>
+        <v>0.40164926713588889</v>
       </c>
       <c r="D39">
-        <v>53.145594461668999</v>
+        <v>0.31173948785052197</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,13 +1168,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>62.515035270683299</v>
+        <v>0.36157028275552622</v>
       </c>
       <c r="C40">
-        <v>45.213983636260899</v>
+        <v>0.26331077276207759</v>
       </c>
       <c r="D40">
-        <v>61.887869905104701</v>
+        <v>0.36301960799952998</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,13 +1182,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>64.131934922255297</v>
+        <v>0.37092199889348959</v>
       </c>
       <c r="C41">
-        <v>41.721718177570501</v>
+        <v>0.24297301345257466</v>
       </c>
       <c r="D41">
-        <v>62.964223817856798</v>
+        <v>0.36933324548737961</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1195,13 +1196,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>67.345395865002104</v>
+        <v>0.3895077995198819</v>
       </c>
       <c r="C42">
-        <v>29.765398354305301</v>
+        <v>0.17334349712016109</v>
       </c>
       <c r="D42">
-        <v>63.529681633772597</v>
+        <v>0.37265008730127264</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1209,13 +1210,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>57.766028117953098</v>
+        <v>0.33410329258930749</v>
       </c>
       <c r="C43">
-        <v>43.981047430265797</v>
+        <v>0.2561305740921565</v>
       </c>
       <c r="D43">
-        <v>57.396448393597701</v>
+        <v>0.3366739916619827</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,13 +1224,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>55.076279955432497</v>
+        <v>0.31854650693841935</v>
       </c>
       <c r="C44">
-        <v>36.180881791996001</v>
+        <v>0.21070507789151088</v>
       </c>
       <c r="D44">
-        <v>53.440723760326797</v>
+        <v>0.31347064651654505</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1237,13 +1238,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>42.931736503295198</v>
+        <v>0.24830570821035267</v>
       </c>
       <c r="C45">
-        <v>44.027414261944202</v>
+        <v>0.2564005986575208</v>
       </c>
       <c r="D45">
-        <v>53.406002666367101</v>
+        <v>0.31326698079113086</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,13 +1252,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>42.329212576530203</v>
+        <v>0.24482087059290425</v>
       </c>
       <c r="C46">
-        <v>38.484470293111599</v>
+        <v>0.22412038925257688</v>
       </c>
       <c r="D46">
-        <v>46.697391297716401</v>
+        <v>0.27391585313068617</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1265,13 +1266,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>41.523305045793897</v>
+        <v>0.24015971648011464</v>
       </c>
       <c r="C47">
-        <v>36.733068605621199</v>
+        <v>0.21392082498812534</v>
       </c>
       <c r="D47">
-        <v>41.3106615776761</v>
+        <v>0.24231857058780851</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1279,13 +1280,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>36.581083469290903</v>
+        <v>0.21157522564332143</v>
       </c>
       <c r="C48">
-        <v>34.813060257481801</v>
+        <v>0.2027393532132567</v>
       </c>
       <c r="D48">
-        <v>40.422793603562603</v>
+        <v>0.23711054703792331</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1293,13 +1294,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>32.017663855184402</v>
+        <v>0.18518162427910093</v>
       </c>
       <c r="C49">
-        <v>29.253255622584302</v>
+        <v>0.17036095305727106</v>
       </c>
       <c r="D49">
-        <v>32.057490037404101</v>
+        <v>0.18804165476484397</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1307,13 +1308,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>30.451610104605301</v>
+        <v>0.17612398726497325</v>
       </c>
       <c r="C50">
-        <v>26.576624884783001</v>
+        <v>0.15477317132940838</v>
       </c>
       <c r="D50">
-        <v>35.266711150540502</v>
+        <v>0.20686618681386992</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1321,13 +1322,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>27.843215383673201</v>
+        <v>0.16103772821222148</v>
       </c>
       <c r="C51">
-        <v>26.488106387942299</v>
+        <v>0.15425766988643949</v>
       </c>
       <c r="D51">
-        <v>33.629859578152598</v>
+        <v>0.1972648026157581</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1335,13 +1336,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>29.950777979825901</v>
+        <v>0.17322730789519514</v>
       </c>
       <c r="C52">
-        <v>13.8609428136203</v>
+        <v>8.0721389046956193E-2</v>
       </c>
       <c r="D52">
-        <v>27.962881028294198</v>
+        <v>0.16402364671774819</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1349,13 +1350,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>20.6864005894275</v>
+        <v>0.11964462113678068</v>
       </c>
       <c r="C53">
-        <v>19.5318170862203</v>
+        <v>0.11374662077542894</v>
       </c>
       <c r="D53">
-        <v>22.884425021053602</v>
+        <v>0.13423462486551482</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1363,13 +1364,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>23.832236483853801</v>
+        <v>0.13783929652847179</v>
       </c>
       <c r="C54">
-        <v>9.2438601700759992</v>
+        <v>5.3833079258587282E-2</v>
       </c>
       <c r="D54">
-        <v>20.2237971924812</v>
+        <v>0.11862801127803818</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1377,13 +1378,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>13.815085529256599</v>
+        <v>7.9902768341675603E-2</v>
       </c>
       <c r="C55">
-        <v>18.895537700596499</v>
+        <v>0.11004114730799443</v>
       </c>
       <c r="D55">
-        <v>17.940389248999999</v>
+        <v>0.10523408032167179</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1391,13 +1392,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>19.5947390951115</v>
+        <v>0.11333074234803658</v>
       </c>
       <c r="C56">
-        <v>9.7671730930650202</v>
+        <v>5.6880674694042621E-2</v>
       </c>
       <c r="D56">
-        <v>20.099545277668099</v>
+        <v>0.1178991789320905</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1405,13 +1406,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>15.1233505618021</v>
+        <v>8.7469424197958445E-2</v>
       </c>
       <c r="C57">
-        <v>15.834905293167299</v>
+        <v>9.221707122515789E-2</v>
       </c>
       <c r="D57">
-        <v>16.875195687877799</v>
+        <v>9.8985906816991029E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1419,13 +1420,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>13.7225459894496</v>
+        <v>7.9367544336295032E-2</v>
       </c>
       <c r="C58">
-        <v>9.6468300890268708</v>
+        <v>5.6179838208482824E-2</v>
       </c>
       <c r="D58">
-        <v>13.253785587876401</v>
+        <v>7.7743571656258503E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1433,13 +1434,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>8.0639056679577301</v>
+        <v>4.6639478644662662E-2</v>
       </c>
       <c r="C59">
-        <v>20.273686393075401</v>
+        <v>0.11806701382126139</v>
       </c>
       <c r="D59">
-        <v>7.1587455510573301</v>
+        <v>4.1991508314925173E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1447,13 +1448,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>8.3399989103487897</v>
+        <v>4.8236328287088438E-2</v>
       </c>
       <c r="C60">
-        <v>8.3765896593632103</v>
+        <v>4.8782392501882141E-2</v>
       </c>
       <c r="D60">
-        <v>9.7968046685559198</v>
+        <v>5.7465739180882519E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1461,13 +1462,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>12.0441227976763</v>
+        <v>6.9659992458491027E-2</v>
       </c>
       <c r="C61">
-        <v>4.2413005486230997</v>
+        <v>2.4699883424528252E-2</v>
       </c>
       <c r="D61">
-        <v>9.7625795902241794</v>
+        <v>5.7264982965831129E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,13 +1476,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.2355105838085301</v>
+        <v>4.7631995687606885E-2</v>
       </c>
       <c r="C62">
-        <v>6.8184533566415499</v>
+        <v>3.9708339721245184E-2</v>
       </c>
       <c r="D62">
-        <v>8.9734187260819809</v>
+        <v>5.2635951978195837E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1489,13 +1490,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7.7382376720986601</v>
+        <v>4.4755901856497436E-2</v>
       </c>
       <c r="C63">
-        <v>6.4875627851180804</v>
+        <v>3.7781346232052704E-2</v>
       </c>
       <c r="D63">
-        <v>9.1438000942987294</v>
+        <v>5.3635368787908436E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1503,13 +1504,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6.4137019512354598</v>
+        <v>3.7095140680587321E-2</v>
       </c>
       <c r="C64">
-        <v>7.1670476275331598</v>
+        <v>4.1738433499031447E-2</v>
       </c>
       <c r="D64">
-        <v>8.7073063416619405</v>
+        <v>5.107499966841187E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1517,13 +1518,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7.2732519075192403</v>
+        <v>4.2066548269023445E-2</v>
       </c>
       <c r="C65">
-        <v>6.4215954291391997</v>
+        <v>3.7397174918602234E-2</v>
       </c>
       <c r="D65">
-        <v>7.8586236021601801</v>
+        <v>4.6096827437208859E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,13 +1532,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6.0112566448772196</v>
+        <v>3.4767504415430771E-2</v>
       </c>
       <c r="C66">
-        <v>4.7397439891664197</v>
+        <v>2.7602647502197208E-2</v>
       </c>
       <c r="D66">
-        <v>6.1835788264165101</v>
+        <v>3.6271410941140836E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,13 +1546,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6.8369940770007602</v>
+        <v>3.9543349386516352E-2</v>
       </c>
       <c r="C67">
-        <v>3.7093465342758201</v>
+        <v>2.1601965229164057E-2</v>
       </c>
       <c r="D67">
-        <v>6.0332860911336104</v>
+        <v>3.5389829301132325E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,13 +1560,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.0177277394773396</v>
+        <v>2.902119833568861E-2</v>
       </c>
       <c r="C68">
-        <v>4.4779821485089997</v>
+        <v>2.6078236092275511E-2</v>
       </c>
       <c r="D68">
-        <v>4.7934950289567304</v>
+        <v>2.8117508148653159E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1573,13 +1574,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.0657771159155596</v>
+        <v>2.9299103107712967E-2</v>
       </c>
       <c r="C69">
-        <v>3.59258642177645</v>
+        <v>2.0921994278200563E-2</v>
       </c>
       <c r="D69">
-        <v>5.0452229601648799</v>
+        <v>2.959408465790829E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1587,13 +1588,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.4824357589988599</v>
+        <v>2.0141479191481078E-2</v>
       </c>
       <c r="C70">
-        <v>3.3470529722064901</v>
+        <v>1.9492091466156478E-2</v>
       </c>
       <c r="D70">
-        <v>3.22806970700025</v>
+        <v>1.8935093442822314E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1601,13 +1602,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.9978743225372</v>
+        <v>1.733890514133048E-2</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>3.2766792385438901</v>
+        <v>1.9220225458402601E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,13 +1616,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.3609785667010201</v>
+        <v>1.365527003616924E-2</v>
       </c>
       <c r="C72">
-        <v>1.16985623907981</v>
+        <v>6.8128425225863695E-3</v>
       </c>
       <c r="D72">
-        <v>1.2503561950532001</v>
+        <v>7.3342937232124253E-3</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2.6030900157248502</v>
+        <v>1.5269110385361336E-2</v>
       </c>
     </row>
   </sheetData>
